--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>863.1265058069275</v>
+        <v>1592.673300225919</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.558192350630922</v>
+        <v>12.10979998706152</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.988684551332163</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>570.0300000000109</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.71</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.61595173195241</v>
+        <v>17.89020001293848</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>15.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1305729572104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1101,15 +1101,141 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8399999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6949999999998</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6799999999998</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1256,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6049999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1267,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1278,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000007</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000007</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1300,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000007</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1322,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>188.0750000000015</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1333,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.6550000000015</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>200.4400000000014</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1355,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>203.0950000000007</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1366,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>195.5150000000015</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1377,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1399,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1410,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1421,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1432,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1443,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1454,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1465,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1487,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1498,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1509,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1520,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1531,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6049999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1542,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.0750000000015</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1553,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>196.6550000000015</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1564,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>200.4400000000014</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1575,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.0950000000007</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1586,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.5150000000015</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -1688,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.83999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1699,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1710,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.67999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1721,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1732,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.604999999999773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1743,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>38.07500000000147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -1754,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>46.65500000000145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1765,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>50.44000000000145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -1776,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.09500000000071</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1787,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>45.51500000000146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -1889,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1900,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1911,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1922,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1933,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1944,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1966,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1977,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1988,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1999,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2021,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2043,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2054,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2076,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2098,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2109,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2131,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2142,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2153,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2260,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2271,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2282,10 +2408,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2293,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2307,9 +2433,53 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
